--- a/src/asset/QuizSheet.xlsx
+++ b/src/asset/QuizSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leesj\Desktop\QuizBot\src\asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC302D3E-B5C9-453E-BD9B-F5AF56E7B3A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79401BC2-7D3E-47AD-BA1D-EFC564AEBC95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
   <si>
     <t>문제지</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,6 +371,20 @@
   </si>
   <si>
     <t>로미오의 선물 - ………ː퀘스트가이드 - +메이플스토리+ (daum.net)</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -818,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -871,8 +885,8 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9" t="b">
-        <v>1</v>
+      <c r="E2" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
@@ -894,8 +908,8 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="9" t="b">
-        <v>0</v>
+      <c r="E3" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>12</v>
@@ -915,8 +929,8 @@
       <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="9" t="b">
-        <v>1</v>
+      <c r="E4" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>64</v>
@@ -938,8 +952,8 @@
       <c r="D5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="b">
-        <v>1</v>
+      <c r="E5" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>29</v>
@@ -958,8 +972,8 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="9" t="b">
-        <v>1</v>
+      <c r="E6" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>35</v>
@@ -981,8 +995,8 @@
       <c r="D7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="9" t="b">
-        <v>0</v>
+      <c r="E7" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>32</v>
@@ -1004,8 +1018,8 @@
       <c r="D8" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="9" t="b">
-        <v>1</v>
+      <c r="E8" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>34</v>
@@ -1024,8 +1038,8 @@
       <c r="D9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="10" t="b">
-        <v>0</v>
+      <c r="E9" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>57</v>
@@ -1044,8 +1058,8 @@
       <c r="D10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="9" t="b">
-        <v>0</v>
+      <c r="E10" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>10</v>
@@ -1064,8 +1078,8 @@
       <c r="D11" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="9" t="b">
-        <v>0</v>
+      <c r="E11" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>23</v>
@@ -1084,8 +1098,8 @@
       <c r="D12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="9" t="b">
-        <v>0</v>
+      <c r="E12" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>26</v>
@@ -1104,8 +1118,8 @@
       <c r="D13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="10" t="b">
-        <v>1</v>
+      <c r="E13" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>50</v>
@@ -1124,8 +1138,8 @@
       <c r="D14" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="10" t="b">
-        <v>0</v>
+      <c r="E14" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>52</v>
@@ -1144,8 +1158,8 @@
       <c r="D15" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="10" t="b">
-        <v>1</v>
+      <c r="E15" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>54</v>
@@ -1164,8 +1178,8 @@
       <c r="D16" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="E16" s="10" t="b">
-        <v>1</v>
+      <c r="E16" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>62</v>
@@ -1184,8 +1198,8 @@
       <c r="D17" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="9" t="b">
-        <v>0</v>
+      <c r="E17" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>18</v>
@@ -1207,8 +1221,8 @@
       <c r="D18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E18" s="9" t="b">
-        <v>0</v>
+      <c r="E18" s="9" t="s">
+        <v>89</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>20</v>
@@ -1227,8 +1241,8 @@
       <c r="D19" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="9" t="b">
-        <v>1</v>
+      <c r="E19" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>28</v>
@@ -1250,8 +1264,8 @@
       <c r="D20" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="10" t="b">
-        <v>0</v>
+      <c r="E20" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>55</v>
@@ -1270,8 +1284,8 @@
       <c r="D21" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="E21" s="10" t="b">
-        <v>0</v>
+      <c r="E21" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>59</v>
@@ -1293,8 +1307,8 @@
       <c r="D22" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="9" t="b">
-        <v>1</v>
+      <c r="E22" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>14</v>
@@ -1316,8 +1330,8 @@
       <c r="D23" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="10" t="b">
-        <v>1</v>
+      <c r="E23" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>66</v>
@@ -1336,8 +1350,8 @@
       <c r="D24" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="10" t="b">
-        <v>1</v>
+      <c r="E24" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>67</v>
@@ -1356,8 +1370,8 @@
       <c r="D25" t="s">
         <v>68</v>
       </c>
-      <c r="E25" s="10" t="b">
-        <v>0</v>
+      <c r="E25" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>69</v>
@@ -1379,8 +1393,8 @@
       <c r="D26" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="10" t="b">
-        <v>1</v>
+      <c r="E26" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>72</v>
@@ -1399,8 +1413,8 @@
       <c r="D27" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="E27" s="10" t="b">
-        <v>0</v>
+      <c r="E27" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>75</v>
@@ -1419,8 +1433,8 @@
       <c r="D28" t="s">
         <v>76</v>
       </c>
-      <c r="E28" s="10" t="b">
-        <v>0</v>
+      <c r="E28" s="10" t="s">
+        <v>89</v>
       </c>
       <c r="F28" s="15" t="s">
         <v>77</v>
@@ -1439,8 +1453,8 @@
       <c r="D29" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="10" t="b">
-        <v>0</v>
+      <c r="E29" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>79</v>
@@ -1459,8 +1473,8 @@
       <c r="D30" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="10" t="b">
-        <v>1</v>
+      <c r="E30" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>81</v>
@@ -1479,8 +1493,8 @@
       <c r="D31" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="10" t="b">
-        <v>1</v>
+      <c r="E31" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>83</v>
@@ -1502,8 +1516,8 @@
       <c r="D32" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="10" t="b">
-        <v>1</v>
+      <c r="E32" s="10" t="s">
+        <v>87</v>
       </c>
       <c r="F32" s="16" t="s">
         <v>86</v>
